--- a/output_by_subject/CB501.xlsx
+++ b/output_by_subject/CB501.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -839,6 +839,72 @@
         </is>
       </c>
     </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>2012CH02</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>CB501</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Elective - I</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>2121CB08</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>CB501</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>CREDIT</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>1921ME03</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>CB501</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>AUDIT</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
